--- a/biology/Botanique/Tabebuia_rosea/Tabebuia_rosea.xlsx
+++ b/biology/Botanique/Tabebuia_rosea/Tabebuia_rosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabebuia rosea est un arbre de la famille des Bignoniacées.
 C'est l'arbre national du Salvador, où il est appelé "Maquilíshuat".
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabebuia rosea est un arbre à croissance rapide qui pousse jusqu'à 30 m de haut et peut atteindre un diamètre de 1 m à hauteur de poitrine.
 La couronne de l'arbre est large, avec une ramification irrégulière et seulement quelques branches épaisses. L'écorce peut être grise à brune et peut être fissurée verticalement.
@@ -549,7 +563,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans le Sud du Mexique, au Venezuela et en Équateur de 0 à 1 200 m sous des températures allant de 20 °C à 30 °C en moyenne, avec des précipitations annuelles supérieures à 500 mm, et sur des sols à pH très variable.
 </t>
@@ -582,10 +598,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">ornementale
-Cet arbre est souvent vu dans les villes tropicales, où il est souvent planté dans les parcs et les jardins. En saison des pluies, il offre une grande ombre et en saison sèche, des fleurs abondantes sont présentes sur les arbres défoliés.
-médicinale
-Les préparations de l'écorce de l'arbre sont consommées pour éliminer les parasites intestinaux et le paludisme. Une décoction d'écorce pourrait soigner l'anémie et la constipation. Une décoction des fleurs, des feuilles et des racines pourrait réduire la fièvre et la douleur, la cause de la transpiration, traiter une inflammation des amygdales et de divers autres troubles[2].
+          <t>ornementale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre est souvent vu dans les villes tropicales, où il est souvent planté dans les parcs et les jardins. En saison des pluies, il offre une grande ombre et en saison sèche, des fleurs abondantes sont présentes sur les arbres défoliés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tabebuia_rosea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tabebuia_rosea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>médicinale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les préparations de l'écorce de l'arbre sont consommées pour éliminer les parasites intestinaux et le paludisme. Une décoction d'écorce pourrait soigner l'anémie et la constipation. Une décoction des fleurs, des feuilles et des racines pourrait réduire la fièvre et la douleur, la cause de la transpiration, traiter une inflammation des amygdales et de divers autres troubles.
 L'arbre contient du lapachol, un composé organique naturel isolé à partir de diverses autres espèces de Tabebuia. Chimiquement, il est un dérivé de la naphtoquinone, liée à la vitamine K. Le lapachol a des effets antipaludiques.
 </t>
         </is>
